--- a/bin/Debug/net6.0-windows/excel/template.xlsx
+++ b/bin/Debug/net6.0-windows/excel/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="12525"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,12 @@
     <t>name_I</t>
   </si>
   <si>
+    <t>name_J</t>
+  </si>
+  <si>
+    <t>name_K</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -74,9 +80,18 @@
     <t>Enum_</t>
   </si>
   <si>
+    <t>vector2</t>
+  </si>
+  <si>
+    <t>vector3</t>
+  </si>
+  <si>
     <t>list&lt;string&gt;</t>
   </si>
   <si>
+    <t>list&lt;vector2&gt;</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -98,6 +113,12 @@
     <t>自定义枚举类型</t>
   </si>
   <si>
+    <t>2维向量</t>
+  </si>
+  <si>
+    <t>3维向量</t>
+  </si>
+  <si>
     <t>list类型</t>
   </si>
   <si>
@@ -107,7 +128,16 @@
     <t>None</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
     <t>内容1|内容2</t>
+  </si>
+  <si>
+    <t>1,2|3,4</t>
   </si>
 </sst>
 </file>
@@ -1041,20 +1071,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="8" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="11" width="15.75" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:9">
+    <row r="1" ht="18" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,66 +1113,93 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:9">
+    <row r="2" ht="18" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:9">
+    <row r="3" ht="18" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:9">
+    <row r="4" ht="18" customHeight="1" spans="1:12">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1169,8 +1227,17 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:9">
+    <row r="5" ht="18" customHeight="1" spans="1:12">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1198,8 +1265,17 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:9">
+    <row r="6" ht="18" customHeight="1" spans="1:12">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1213,7 +1289,7 @@
         <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1222,10 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
